--- a/public/data/profit/profit_table_somalia.xlsx
+++ b/public/data/profit/profit_table_somalia.xlsx
@@ -4376,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-59.26</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-58.69</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
